--- a/medicine/Mort/Cimetière_communal_de_Montreuil/Cimetière_communal_de_Montreuil.xlsx
+++ b/medicine/Mort/Cimetière_communal_de_Montreuil/Cimetière_communal_de_Montreuil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Montreuil</t>
+          <t>Cimetière_communal_de_Montreuil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière communal de Montreuil, est un cimetière se trouvant avenue Jean-Moulin à Montreuil en Seine-Saint-Denis[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière communal de Montreuil, est un cimetière se trouvant avenue Jean-Moulin à Montreuil en Seine-Saint-Denis.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Montreuil</t>
+          <t>Cimetière_communal_de_Montreuil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière était destiné à remplacer le cimetière de l'église[2]. Il a été ouvert le 28 mars 1826, et est propriété communale depuis 1904.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière était destiné à remplacer le cimetière de l'église. Il a été ouvert le 28 mars 1826, et est propriété communale depuis 1904.
 Son ancienne entrée se trouvait à l'angle de la  rue Pierre-de-Montreuil et de la rue Eugène-Varlin. Dans les années 1930, elle a été déplacée rue Galilée.
 En 1970, il a été agrandi d'une annexe située de l'autre côté de l'avenue Jean-Moulin, appelée Cimetière nouveau de Montreuil.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Montreuil</t>
+          <t>Cimetière_communal_de_Montreuil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière comprend plusieurs monuments funéraires:
 un mausolée dédié aux soldats morts pendant la guerre de 1870,
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Montreuil</t>
+          <t>Cimetière_communal_de_Montreuil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Luc Barney (1916-1991), chanteur d'opérette.
 Georges Bourgeot (1876-1955), maître-verrier.
